--- a/ranking/ranking_data.xlsx
+++ b/ranking/ranking_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,71 @@
         <v>165.344</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ms3_04131451</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>128.325</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>kkk_04131456</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>155.924</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ks23_04131502</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>142.915</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>no_04131506</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>54.643</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>no22_04131530</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-46.045</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ranking/ranking_data.xlsx
+++ b/ranking/ranking_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dummy1</t>
+          <t>haney_04151055</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>59.964</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dummy2</t>
+          <t>ljs_04151101</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>66.90600000000001</v>
       </c>
     </row>
     <row r="4">
@@ -477,141 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dummy3</t>
+          <t>PMS_04151105</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>msbak_04131203</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>127.305</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>msbak_04131203</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>127.305</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>msbak_04131203</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>127.305</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MS1_04131339</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>142.159</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ms2_04131351</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>165.344</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ms3_04131451</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>128.325</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>kkk_04131456</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>155.924</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ks23_04131502</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>142.915</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>no_04131506</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>54.643</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>no22_04131530</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-46.045</v>
+        <v>62.621</v>
       </c>
     </row>
   </sheetData>

--- a/ranking/ranking_data.xlsx
+++ b/ranking/ranking_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,422 @@
         <v>62.621</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>hn_04170923</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40.227</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GH_04171031</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>50.979</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>JJY_04171054</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>55.17100000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>free_04171100</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36.04900000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sfox_04171106</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>63.16800000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YY_04171112</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>62.884</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MINI_04171122</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>60.84099999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Morice_04171128</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>35.014</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HAN_04171134</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>48.97199999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PJK_04171139</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>25.399</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CJY_04171145</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>59.25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>poca_04181017</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>24.352</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>kim_04181117</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>60.63</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>jk_04181405</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>63.23699999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GEE_04191043</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>56.07299999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>YOON_04191048</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>65.691</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>JH_04191156</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>41.148</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>chae_04191402</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>54.84999999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>spyjason_04191407</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>50.867</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>YS_04191410</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>60.515</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>JUN_04191517</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>69.82599999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>lenka_04191606</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>12.04000000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>pak_04191626</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>42.139</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>abc_04231357</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>60.96299999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>KSE_04231432</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>53.25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>KSE2_04231450</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>62.117</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>KSE3_04231507</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>69.535</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KSE4_04231520</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>62.57899999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MSBAK_04231528</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>70.527</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>msbak2_04231531</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>80.45099999999999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>VNS_04231535</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>66.77800000000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>VNSafter_04231538</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>66.89400000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
